--- a/data/trans_bre/VUL_INSOM-Clase-trans_bre.xlsx
+++ b/data/trans_bre/VUL_INSOM-Clase-trans_bre.xlsx
@@ -541,22 +541,22 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="E2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="F2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
         </is>
       </c>
     </row>
@@ -581,22 +581,22 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,86</t>
+          <t>0,84</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,71</t>
+          <t>2,04</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>80,9%</t>
+          <t>22,7%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>20,52%</t>
+          <t>123,39%</t>
         </is>
       </c>
     </row>
@@ -609,22 +609,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,27; 4,16</t>
+          <t>-1,14; 2,72</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,96; 2,5</t>
+          <t>0,03; 4,18</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-15,09; 270,23</t>
+          <t>-24,96; 90,56</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-24,49; 97,46</t>
+          <t>-11,04; 442,79</t>
         </is>
       </c>
     </row>
@@ -641,22 +641,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1,78</t>
+          <t>1,69</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>1,73</t>
+          <t>1,39</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>88,16%</t>
+          <t>44,78%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>49,19%</t>
+          <t>84,98%</t>
         </is>
       </c>
     </row>
@@ -669,22 +669,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,55; 4,23</t>
+          <t>-1,1; 4,45</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-0,78; 3,92</t>
+          <t>-0,56; 3,37</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-22,3; 463,8</t>
+          <t>-24,21; 177,26</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-16,9; 167,31</t>
+          <t>-33,58; 383,71</t>
         </is>
       </c>
     </row>
@@ -701,22 +701,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>7,11</t>
+          <t>1,45</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,14</t>
+          <t>6,03</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>681,07%</t>
+          <t>23,54%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>42,52%</t>
+          <t>696,75%</t>
         </is>
       </c>
     </row>
@@ -729,22 +729,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,42; 13,23</t>
+          <t>-1,62; 5,29</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,61; 5,16</t>
+          <t>2,8; 11,29</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>142,83; 3855,9</t>
+          <t>-23,84; 103,74</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-10,1; 121,35</t>
+          <t>61,26; 3068,17</t>
         </is>
       </c>
     </row>
@@ -761,22 +761,22 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1,56</t>
+          <t>4,18</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>4,12</t>
+          <t>1,95</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>44,74%</t>
+          <t>87,35%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>86,9%</t>
+          <t>59,0%</t>
         </is>
       </c>
     </row>
@@ -789,22 +789,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,77; 4,13</t>
+          <t>1,82; 6,45</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,01; 6,23</t>
+          <t>-0,37; 4,56</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-19,71; 153,99</t>
+          <t>29,48; 167,57</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>34,28; 159,0</t>
+          <t>-13,54; 199,83</t>
         </is>
       </c>
     </row>
@@ -821,22 +821,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>3,95</t>
+          <t>4,54</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>4,42</t>
+          <t>4,84</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>137,07%</t>
+          <t>98,62%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>101,02%</t>
+          <t>262,23%</t>
         </is>
       </c>
     </row>
@@ -849,22 +849,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,7; 7,73</t>
+          <t>1,13; 7,52</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,63; 7,04</t>
+          <t>1,96; 8,62</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>8,53; 455,63</t>
+          <t>11,77; 248,22</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>22,62; 223,63</t>
+          <t>53,9; 765,56</t>
         </is>
       </c>
     </row>
@@ -881,22 +881,22 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>6,66</t>
+          <t>11,25</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>9,72</t>
+          <t>8,13</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
+          <t>718,51%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>inf%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>791,27%</t>
         </is>
       </c>
     </row>
@@ -909,22 +909,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 31,33</t>
+          <t>8,24; 14,42</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>7,36; 11,97</t>
+          <t>0,0; 39,58</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
+          <t>216,91; 2984,57</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>308,07; 2064,84</t>
         </is>
       </c>
     </row>
@@ -941,22 +941,22 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2,67</t>
+          <t>3,6</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>3,64</t>
+          <t>2,75</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>109,04%</t>
+          <t>79,41%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>89,61%</t>
+          <t>138,78%</t>
         </is>
       </c>
     </row>
@@ -969,22 +969,22 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,44; 3,86</t>
+          <t>2,41; 4,67</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,73; 4,67</t>
+          <t>1,68; 4,09</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>47,94; 200,71</t>
+          <t>47,95; 119,94</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>59,77; 127,5</t>
+          <t>65,68; 250,75</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/VUL_INSOM-Clase-trans_bre.xlsx
+++ b/data/trans_bre/VUL_INSOM-Clase-trans_bre.xlsx
@@ -581,7 +581,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,84</t>
+          <t>-0,4</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -591,7 +591,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>22,7%</t>
+          <t>-10,17%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -609,7 +609,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,14; 2,72</t>
+          <t>-2,17; 1,42</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -619,7 +619,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-24,96; 90,56</t>
+          <t>-43,45; 48,94</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -641,7 +641,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1,69</t>
+          <t>1,14</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -651,7 +651,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>44,78%</t>
+          <t>29,83%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -669,7 +669,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,1; 4,45</t>
+          <t>-1,6; 3,4</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -679,7 +679,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-24,21; 177,26</t>
+          <t>-29,94; 140,42</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -701,7 +701,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,45</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>23,54%</t>
+          <t>21,7%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -729,7 +729,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,62; 5,29</t>
+          <t>-1,6; 4,39</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-23,84; 103,74</t>
+          <t>-25,72; 100,55</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -761,7 +761,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>4,18</t>
+          <t>4,07</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -771,7 +771,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>87,35%</t>
+          <t>90,88%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -789,7 +789,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,82; 6,45</t>
+          <t>1,87; 6,21</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -799,7 +799,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>29,48; 167,57</t>
+          <t>29,03; 167,84</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -821,7 +821,7 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>4,54</t>
+          <t>7,03</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>98,62%</t>
+          <t>213,47%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -849,7 +849,7 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,13; 7,52</t>
+          <t>4,24; 10,44</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
@@ -859,7 +859,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>11,77; 248,22</t>
+          <t>89,3; 517,17</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -881,7 +881,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>11,25</t>
+          <t>9,85</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -891,7 +891,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>718,51%</t>
+          <t>666,34%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -909,7 +909,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>8,24; 14,42</t>
+          <t>7,07; 12,73</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>216,91; 2984,57</t>
+          <t>185,08; 2775,27</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>3,6</t>
+          <t>3,34</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -951,7 +951,7 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>79,41%</t>
+          <t>80,65%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -969,7 +969,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,41; 4,67</t>
+          <t>2,38; 4,4</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>47,95; 119,94</t>
+          <t>51,43; 119,33</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">

--- a/data/trans_bre/VUL_INSOM-Clase-trans_bre.xlsx
+++ b/data/trans_bre/VUL_INSOM-Clase-trans_bre.xlsx
@@ -541,22 +541,22 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="E2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="F2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
         </is>
       </c>
     </row>
@@ -581,22 +581,22 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>2,04</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
           <t>-0,4</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>2,04</t>
-        </is>
-      </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
+          <t>123,39%</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>-10,17%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>123,39%</t>
         </is>
       </c>
     </row>
@@ -609,22 +609,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>0,03; 4,18</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
           <t>-2,17; 1,42</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>0,03; 4,18</t>
-        </is>
-      </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
+          <t>-11,04; 442,79</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>-43,45; 48,94</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-11,04; 442,79</t>
         </is>
       </c>
     </row>
@@ -641,22 +641,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>1,39</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
           <t>1,14</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>1,39</t>
-        </is>
-      </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
+          <t>84,98%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>29,83%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>84,98%</t>
         </is>
       </c>
     </row>
@@ -669,22 +669,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>-0,56; 3,37</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
           <t>-1,6; 3,4</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-0,56; 3,37</t>
-        </is>
-      </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
+          <t>-33,58; 383,71</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
           <t>-29,94; 140,42</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-33,58; 383,71</t>
         </is>
       </c>
     </row>
@@ -701,22 +701,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>6,03</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
           <t>1,2</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>6,03</t>
-        </is>
-      </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
+          <t>696,75%</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>21,7%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>696,75%</t>
         </is>
       </c>
     </row>
@@ -729,22 +729,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>2,8; 11,29</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
           <t>-1,6; 4,39</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>2,8; 11,29</t>
-        </is>
-      </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
+          <t>61,26; 3068,17</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
           <t>-25,72; 100,55</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>61,26; 3068,17</t>
         </is>
       </c>
     </row>
@@ -761,22 +761,22 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>1,95</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
           <t>4,07</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>1,95</t>
-        </is>
-      </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
+          <t>59,0%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>90,88%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>59,0%</t>
         </is>
       </c>
     </row>
@@ -789,22 +789,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>-0,37; 4,56</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
           <t>1,87; 6,21</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-0,37; 4,56</t>
-        </is>
-      </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
+          <t>-13,54; 199,83</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
           <t>29,03; 167,84</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-13,54; 199,83</t>
         </is>
       </c>
     </row>
@@ -821,22 +821,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>4,84</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
           <t>7,03</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>4,84</t>
-        </is>
-      </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
+          <t>262,23%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>213,47%</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>262,23%</t>
         </is>
       </c>
     </row>
@@ -849,22 +849,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>1,96; 8,62</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
           <t>4,24; 10,44</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>1,96; 8,62</t>
-        </is>
-      </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
+          <t>53,9; 765,56</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
           <t>89,3; 517,17</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>53,9; 765,56</t>
         </is>
       </c>
     </row>
@@ -881,22 +881,22 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>8,13</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
           <t>9,85</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>8,13</t>
-        </is>
-      </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>666,34%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -909,22 +909,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>0,0; 39,58</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
           <t>7,07; 12,73</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 39,58</t>
-        </is>
-      </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
           <t>185,08; 2775,27</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -941,22 +941,22 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>2,75</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
           <t>3,34</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>2,75</t>
-        </is>
-      </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
+          <t>138,78%</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
           <t>80,65%</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>138,78%</t>
         </is>
       </c>
     </row>
@@ -969,22 +969,22 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>1,68; 4,09</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
           <t>2,38; 4,4</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>1,68; 4,09</t>
-        </is>
-      </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
+          <t>65,68; 250,75</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
           <t>51,43; 119,33</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>65,68; 250,75</t>
         </is>
       </c>
     </row>
